--- a/www/IndicatorsPerCountry/BosniaandHerzegovina_GDPperCapita_TerritorialRef_1992_2012_CCode_70.xlsx
+++ b/www/IndicatorsPerCountry/BosniaandHerzegovina_GDPperCapita_TerritorialRef_1992_2012_CCode_70.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/BosniaandHerzegovina_GDPperCapita_TerritorialRef_1992_2012_CCode_70.xlsx
+++ b/www/IndicatorsPerCountry/BosniaandHerzegovina_GDPperCapita_TerritorialRef_1992_2012_CCode_70.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1187.856839</t>
-  </si>
-  <si>
-    <t>1178.037023</t>
-  </si>
-  <si>
-    <t>1159.200096</t>
-  </si>
-  <si>
-    <t>1420.534147</t>
-  </si>
-  <si>
-    <t>1211.771245</t>
-  </si>
-  <si>
-    <t>1389.13455</t>
-  </si>
-  <si>
-    <t>1432.742628</t>
-  </si>
-  <si>
-    <t>1672.969377</t>
-  </si>
-  <si>
-    <t>1801.1851</t>
-  </si>
-  <si>
-    <t>1834.812756</t>
-  </si>
-  <si>
-    <t>1798.500039</t>
-  </si>
-  <si>
-    <t>1991.202996</t>
-  </si>
-  <si>
-    <t>2175.816832</t>
-  </si>
-  <si>
-    <t>2239.034401</t>
-  </si>
-  <si>
-    <t>2390.414239</t>
-  </si>
-  <si>
-    <t>2335.770865</t>
-  </si>
-  <si>
-    <t>2414.972925</t>
-  </si>
-  <si>
-    <t>2592.369752</t>
-  </si>
-  <si>
-    <t>2666.959974</t>
-  </si>
-  <si>
-    <t>2817.425176</t>
-  </si>
-  <si>
-    <t>2923.536197</t>
-  </si>
-  <si>
-    <t>3012.284719</t>
-  </si>
-  <si>
-    <t>3206.872644</t>
-  </si>
-  <si>
-    <t>3292.275866</t>
-  </si>
-  <si>
-    <t>3304.51362</t>
-  </si>
-  <si>
-    <t>3542.788228</t>
-  </si>
-  <si>
-    <t>3750.430366</t>
-  </si>
-  <si>
-    <t>3999.882045</t>
-  </si>
-  <si>
-    <t>4133.470846</t>
-  </si>
-  <si>
-    <t>4241.875366</t>
-  </si>
-  <si>
-    <t>4291.975883</t>
-  </si>
-  <si>
-    <t>4248.535522</t>
-  </si>
-  <si>
-    <t>4292.515961</t>
-  </si>
-  <si>
-    <t>4313.008762</t>
-  </si>
-  <si>
-    <t>4433.06455</t>
-  </si>
-  <si>
-    <t>4319.761815</t>
-  </si>
-  <si>
-    <t>4183.250391</t>
-  </si>
-  <si>
-    <t>4210.321201</t>
-  </si>
-  <si>
-    <t>3696.64944018</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>915.966959329</t>
-  </si>
-  <si>
-    <t>1144.77993902</t>
-  </si>
-  <si>
-    <t>2140.11640068</t>
-  </si>
-  <si>
-    <t>2825.12525863</t>
-  </si>
-  <si>
-    <t>3163.33944424</t>
-  </si>
-  <si>
-    <t>3354.97031473</t>
-  </si>
-  <si>
-    <t>3452.2158311</t>
-  </si>
-  <si>
-    <t>3548.74630691</t>
-  </si>
-  <si>
-    <t>3703.91010876</t>
-  </si>
-  <si>
-    <t>3836.19261264</t>
-  </si>
-  <si>
-    <t>4061.43038953</t>
-  </si>
-  <si>
-    <t>4253.77630058</t>
-  </si>
-  <si>
-    <t>4496.17505094</t>
-  </si>
-  <si>
-    <t>5041.03595883</t>
-  </si>
-  <si>
-    <t>5348.53915232</t>
-  </si>
-  <si>
-    <t>5193.61151496</t>
-  </si>
-  <si>
-    <t>5233.02811451</t>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2667</t>
+  </si>
+  <si>
+    <t>2871</t>
+  </si>
+  <si>
+    <t>2925</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>3174</t>
+  </si>
+  <si>
+    <t>3469</t>
+  </si>
+  <si>
+    <t>3569</t>
+  </si>
+  <si>
+    <t>3810</t>
+  </si>
+  <si>
+    <t>3724</t>
+  </si>
+  <si>
+    <t>3849</t>
+  </si>
+  <si>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>4251</t>
+  </si>
+  <si>
+    <t>4490</t>
+  </si>
+  <si>
+    <t>4661</t>
+  </si>
+  <si>
+    <t>4801</t>
+  </si>
+  <si>
+    <t>5112</t>
+  </si>
+  <si>
+    <t>5247</t>
+  </si>
+  <si>
+    <t>5268</t>
+  </si>
+  <si>
+    <t>5647</t>
+  </si>
+  <si>
+    <t>5977</t>
+  </si>
+  <si>
+    <t>6376</t>
+  </si>
+  <si>
+    <t>6588</t>
+  </si>
+  <si>
+    <t>6762</t>
+  </si>
+  <si>
+    <t>6841</t>
+  </si>
+  <si>
+    <t>6773</t>
+  </si>
+  <si>
+    <t>6843</t>
+  </si>
+  <si>
+    <t>6875</t>
+  </si>
+  <si>
+    <t>7066</t>
+  </si>
+  <si>
+    <t>6886</t>
+  </si>
+  <si>
+    <t>6668</t>
+  </si>
+  <si>
+    <t>6711</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>5128.93944742336</t>
+  </si>
+  <si>
+    <t>3830.21906094418</t>
+  </si>
+  <si>
+    <t>2831.03930913351</t>
+  </si>
+  <si>
+    <t>3017.00105655475</t>
+  </si>
+  <si>
+    <t>3237.30742629451</t>
+  </si>
+  <si>
+    <t>4915.32505589752</t>
+  </si>
+  <si>
+    <t>5913.08121295309</t>
+  </si>
+  <si>
+    <t>6589.63719694781</t>
+  </si>
+  <si>
+    <t>7025.97323493838</t>
+  </si>
+  <si>
+    <t>7082.03527219474</t>
+  </si>
+  <si>
+    <t>7129.38678024182</t>
+  </si>
+  <si>
+    <t>7391.59216627075</t>
+  </si>
+  <si>
+    <t>7551.40808041512</t>
+  </si>
+  <si>
+    <t>7857.37828637402</t>
+  </si>
+  <si>
+    <t>8057.68282513265</t>
+  </si>
+  <si>
+    <t>8410.80100462965</t>
+  </si>
+  <si>
+    <t>8811.8612403594</t>
+  </si>
+  <si>
+    <t>9199.26167960717</t>
+  </si>
+  <si>
+    <t>9018.50624592515</t>
+  </si>
+  <si>
+    <t>8982.45785298652</t>
+  </si>
+  <si>
+    <t>8961</t>
+  </si>
+  <si>
+    <t>8873</t>
+  </si>
+  <si>
+    <t>9093</t>
+  </si>
+  <si>
+    <t>9201</t>
+  </si>
+  <si>
+    <t>9495</t>
+  </si>
+  <si>
+    <t>9746</t>
   </si>
   <si>
     <t>Description</t>
@@ -1002,7 +1026,7 @@
         <v>1992.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1043,7 @@
         <v>1993.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1060,7 @@
         <v>1994.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1077,7 @@
         <v>1995.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1094,7 @@
         <v>1996.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1111,7 @@
         <v>1997.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1128,7 @@
         <v>1998.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1145,7 @@
         <v>1999.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1162,7 @@
         <v>2000.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1179,7 @@
         <v>2001.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1196,7 @@
         <v>2002.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1213,7 @@
         <v>2003.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1230,7 @@
         <v>2004.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1247,7 @@
         <v>2005.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1264,7 @@
         <v>2006.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1281,7 @@
         <v>2007.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1298,7 @@
         <v>2008.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1315,7 @@
         <v>2009.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1332,109 @@
         <v>2010.0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1452,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
